--- a/NEW HR/DONE/DIAZ, CAROLINA.xlsx
+++ b/NEW HR/DONE/DIAZ, CAROLINA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>12/7,14,15,20,22/2022</t>
+  </si>
+  <si>
+    <t>5/8-12/2023</t>
+  </si>
+  <si>
+    <t>SL(10-0-0)</t>
+  </si>
+  <si>
+    <t>5/20,24-28,5/2-5/2023</t>
   </si>
 </sst>
 </file>
@@ -3266,9 +3275,9 @@
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4005" topLeftCell="A66" activePane="bottomLeft"/>
+      <pane ySplit="4005" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,7 +3438,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>31.75</v>
+        <v>28</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3439,7 +3448,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>67.75</v>
+        <v>59</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4955,13 +4964,15 @@
       <c r="B83" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39">
         <v>1</v>
@@ -4973,10 +4984,16 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
+      <c r="A84" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>5</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -4986,11 +5003,15 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -4999,10 +5020,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>10</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>

--- a/NEW HR/DONE/DIAZ, CAROLINA.xlsx
+++ b/NEW HR/DONE/DIAZ, CAROLINA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -607,6 +607,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -619,20 +628,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,7 +1329,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1372,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1436,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1496,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1625,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1723,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1782,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1847,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1890,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1965,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2217,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2275,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2341,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2397,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2472,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2515,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2581,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2637,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2735,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2798,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,7 +3277,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4005" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,14 +3307,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3325,16 +3325,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>43101</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3347,14 +3347,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3380,18 +3380,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3438,7 +3438,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>28</v>
+        <v>29.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3448,7 +3448,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>59</v>
+        <v>59.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4990,15 +4990,17 @@
       <c r="B84" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39">
         <v>5</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5031,7 +5033,9 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
@@ -5040,10 +5044,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="49">
+        <v>45075</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
@@ -5879,17 +5887,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5958,14 +5966,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5979,14 +5987,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5997,17 +6005,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6033,18 +6041,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/DIAZ, CAROLINA.xlsx
+++ b/NEW HR/DONE/DIAZ, CAROLINA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -607,15 +607,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -628,11 +619,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,7 +1329,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1372,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1436,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1496,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1625,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1723,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1782,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1847,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1890,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1965,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2217,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2275,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2341,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2397,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2472,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2515,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2581,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2637,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2735,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2798,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,7 +3277,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4005" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,14 +3307,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3325,16 +3325,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3347,14 +3347,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3380,18 +3380,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3438,7 +3438,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>29.25</v>
+        <v>30.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3448,7 +3448,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>59.25</v>
+        <v>59.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5054,15 +5054,19 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45078</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5070,8 +5074,12 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
@@ -5080,10 +5088,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="49">
+        <v>45117</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
@@ -5887,17 +5899,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5966,14 +5978,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5987,14 +5999,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6005,17 +6017,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6041,18 +6053,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/DIAZ, CAROLINA.xlsx
+++ b/NEW HR/DONE/DIAZ, CAROLINA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ECCA48-9F1A-46FA-85AD-0CE98561252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -224,11 +225,23 @@
   <si>
     <t>5/20,24-28,5/2-5/2023</t>
   </si>
+  <si>
+    <t>8/8-10/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/11,14,15/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -607,6 +620,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -619,20 +641,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,7 +1342,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1385,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1449,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1509,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1575,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1638,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1736,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1795,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1860,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1903,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1978,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2164,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2230,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2288,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2354,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2410,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2485,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2528,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2594,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2650,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2748,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2811,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2860,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2864,25 +2877,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2894,25 +2907,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2924,13 +2937,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2939,14 +2952,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3250,7 +3263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3260,7 +3273,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3268,34 +3281,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4005" topLeftCell="A71" activePane="bottomLeft"/>
+      <pane ySplit="4008" topLeftCell="A83" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3307,16 +3320,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3325,18 +3338,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>43101</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3347,16 +3360,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3364,7 +3377,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3377,24 +3390,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +3442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3438,7 +3451,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>30.5</v>
+        <v>28.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3448,12 +3461,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>59.5</v>
+        <v>60.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3475,7 +3488,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3495,7 +3508,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3515,7 +3528,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3535,7 +3548,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3555,7 +3568,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3575,7 +3588,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3595,7 +3608,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3615,7 +3628,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3635,7 +3648,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3655,7 +3668,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3675,7 +3688,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3695,7 +3708,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3719,7 +3732,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3737,7 +3750,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3757,7 +3770,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3777,7 +3790,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3797,7 +3810,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3817,7 +3830,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3837,7 +3850,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3857,7 +3870,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3877,7 +3890,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3897,7 +3910,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3917,7 +3930,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3937,7 +3950,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3957,7 +3970,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3981,7 +3994,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3999,7 +4012,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4019,7 +4032,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4039,7 +4052,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4059,7 +4072,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4079,7 +4092,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4099,7 +4112,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4119,7 +4132,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4139,7 +4152,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4159,7 +4172,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4179,7 +4192,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4199,7 +4212,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4219,7 +4232,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4243,7 +4256,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4261,7 +4274,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4281,7 +4294,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4301,7 +4314,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4321,7 +4334,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4341,7 +4354,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4361,7 +4374,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4381,7 +4394,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4401,7 +4414,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4421,7 +4434,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4441,7 +4454,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4461,7 +4474,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4481,7 +4494,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4505,7 +4518,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4523,7 +4536,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4543,7 +4556,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4563,7 +4576,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4589,7 +4602,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>52</v>
@@ -4609,7 +4622,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="49"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4635,7 +4648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4655,7 +4668,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4675,7 +4688,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4695,7 +4708,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4715,7 +4728,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4741,7 +4754,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>55</v>
@@ -4763,7 +4776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>55</v>
@@ -4785,7 +4798,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4805,7 +4818,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4831,7 +4844,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4857,7 +4870,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>49</v>
@@ -4879,7 +4892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4897,7 +4910,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44927</v>
       </c>
@@ -4917,7 +4930,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
@@ -4937,7 +4950,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -4957,7 +4970,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -4983,7 +4996,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -5009,7 +5022,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>60</v>
@@ -5031,7 +5044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>51</v>
@@ -5053,7 +5066,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45078</v>
       </c>
@@ -5073,20 +5086,22 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45108</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39">
         <v>1</v>
@@ -5097,9 +5112,11 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
-      <c r="B89" s="20"/>
+      <c r="B89" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
@@ -5111,13 +5128,19 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>3</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -5127,9 +5150,11 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5145,7 +5170,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5161,7 +5186,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5177,7 +5202,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5193,7 +5218,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5209,7 +5234,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5225,7 +5250,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5241,7 +5266,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5257,7 +5282,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5273,7 +5298,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5289,7 +5314,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5305,7 +5330,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5321,7 +5346,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5337,7 +5362,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5353,7 +5378,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5369,7 +5394,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5385,7 +5410,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5401,7 +5426,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5417,7 +5442,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5433,7 +5458,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5449,7 +5474,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5465,7 +5490,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5481,7 +5506,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5497,7 +5522,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5513,7 +5538,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5529,7 +5554,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5545,7 +5570,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5561,7 +5586,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5577,7 +5602,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5593,7 +5618,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5609,7 +5634,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5625,7 +5650,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5641,7 +5666,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5657,7 +5682,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5673,7 +5698,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5689,7 +5714,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5705,7 +5730,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5721,7 +5746,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5737,7 +5762,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5753,7 +5778,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5769,7 +5794,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5785,7 +5810,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5801,7 +5826,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5817,7 +5842,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5833,7 +5858,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5849,7 +5874,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5865,7 +5890,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5881,7 +5906,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5899,23 +5924,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5938,34 +5963,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5978,16 +6003,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5999,16 +6024,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6017,19 +6042,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6037,7 +6062,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6050,24 +6075,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6102,7 +6127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6126,7 +6151,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -6146,7 +6171,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -6162,7 +6187,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -6178,7 +6203,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -6194,7 +6219,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -6210,7 +6235,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -6226,7 +6251,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6242,7 +6267,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6258,7 +6283,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6274,7 +6299,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6290,7 +6315,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6306,7 +6331,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6322,7 +6347,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6338,7 +6363,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6354,7 +6379,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6370,7 +6395,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6386,7 +6411,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6402,7 +6427,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6418,7 +6443,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6434,7 +6459,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6450,7 +6475,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6466,7 +6491,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6482,7 +6507,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6498,7 +6523,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6514,7 +6539,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6530,7 +6555,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6546,7 +6571,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6562,7 +6587,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6578,7 +6603,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6594,7 +6619,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6610,7 +6635,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6626,7 +6651,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6642,7 +6667,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6658,7 +6683,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6674,7 +6699,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6690,7 +6715,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6706,7 +6731,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6722,7 +6747,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6738,7 +6763,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6754,7 +6779,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6770,7 +6795,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6786,7 +6811,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6802,7 +6827,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6818,7 +6843,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6834,7 +6859,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6850,7 +6875,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6866,7 +6891,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6882,7 +6907,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6898,7 +6923,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6914,7 +6939,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6930,7 +6955,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6946,7 +6971,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6962,7 +6987,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6978,7 +7003,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6994,7 +7019,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7010,7 +7035,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7026,7 +7051,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7042,7 +7067,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7058,7 +7083,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7074,7 +7099,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7090,7 +7115,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7106,7 +7131,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7122,7 +7147,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7138,7 +7163,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7154,7 +7179,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7170,7 +7195,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7186,7 +7211,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7202,7 +7227,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7218,7 +7243,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7234,7 +7259,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7250,7 +7275,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7266,7 +7291,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7282,7 +7307,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7298,7 +7323,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7314,7 +7339,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7330,7 +7355,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7346,7 +7371,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7362,7 +7387,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7378,7 +7403,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7394,7 +7419,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7410,7 +7435,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7426,7 +7451,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7442,7 +7467,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7458,7 +7483,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7474,7 +7499,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7490,7 +7515,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7506,7 +7531,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7522,7 +7547,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7538,7 +7563,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7554,7 +7579,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7570,7 +7595,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7586,7 +7611,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7602,7 +7627,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7618,7 +7643,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7634,7 +7659,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7650,7 +7675,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7666,7 +7691,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7682,7 +7707,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7698,7 +7723,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7714,7 +7739,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7730,7 +7755,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7746,7 +7771,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7762,7 +7787,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7778,7 +7803,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7794,7 +7819,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7810,7 +7835,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7826,7 +7851,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7842,7 +7867,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7858,7 +7883,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7874,7 +7899,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7890,7 +7915,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7906,7 +7931,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7922,7 +7947,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7938,7 +7963,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7954,7 +7979,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7970,7 +7995,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7986,7 +8011,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8002,7 +8027,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8018,7 +8043,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8034,7 +8059,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8050,7 +8075,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8081,10 +8106,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8107,7 +8132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8115,21 +8140,21 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8142,7 +8167,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8171,7 +8196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -8191,17 +8216,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8222,7 +8247,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8249,7 +8274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8275,7 +8300,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8301,7 +8326,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8327,7 +8352,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8353,7 +8378,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8379,7 +8404,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8405,7 +8430,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8431,7 +8456,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8451,7 +8476,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8471,7 +8496,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8491,7 +8516,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8512,7 +8537,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8533,7 +8558,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8554,7 +8579,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8575,7 +8600,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8596,7 +8621,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8617,7 +8642,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8638,7 +8663,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8659,7 +8684,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8680,7 +8705,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8701,7 +8726,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8722,7 +8747,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8743,7 +8768,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8764,7 +8789,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8785,7 +8810,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8806,7 +8831,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8827,7 +8852,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8848,7 +8873,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8869,7 +8894,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8890,7 +8915,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8911,7 +8936,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8920,7 +8945,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8929,7 +8954,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8938,7 +8963,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8947,7 +8972,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8956,7 +8981,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8965,7 +8990,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8974,7 +8999,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8983,7 +9008,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8992,7 +9017,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9001,7 +9026,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9010,7 +9035,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9019,7 +9044,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9028,7 +9053,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9037,7 +9062,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9046,7 +9071,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9055,7 +9080,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9064,7 +9089,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9073,7 +9098,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9082,7 +9107,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9091,7 +9116,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9100,7 +9125,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9109,7 +9134,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9118,7 +9143,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9127,7 +9152,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9136,7 +9161,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9145,7 +9170,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9154,7 +9179,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9163,7 +9188,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9172,7 +9197,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DIAZ, CAROLINA.xlsx
+++ b/NEW HR/DONE/DIAZ, CAROLINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ECCA48-9F1A-46FA-85AD-0CE98561252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -237,11 +236,17 @@
   <si>
     <t>8/11,14,15/2023</t>
   </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>8/1,3,4,7/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -620,15 +625,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -641,11 +637,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,7 +1347,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1390,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1454,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1514,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1580,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1643,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1741,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1800,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1865,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1908,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1983,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2169,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2235,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2293,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2359,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2415,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2490,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2533,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2599,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2655,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2753,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2816,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2865,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2877,25 +2882,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2907,25 +2912,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2937,13 +2942,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2952,14 +2957,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3263,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3273,7 +3278,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3281,34 +3286,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4008" topLeftCell="A83" activePane="bottomLeft"/>
+      <pane ySplit="4005" topLeftCell="A83" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3320,16 +3325,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3338,18 +3343,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3360,16 +3365,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3377,7 +3382,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3390,24 +3395,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3442,7 +3447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3461,12 +3466,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>60.75</v>
+        <v>56.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3488,7 +3493,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3508,7 +3513,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3528,7 +3533,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3548,7 +3553,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3568,7 +3573,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3588,7 +3593,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3608,7 +3613,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3628,7 +3633,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3648,7 +3653,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3668,7 +3673,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3688,7 +3693,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3708,7 +3713,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3732,7 +3737,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3750,7 +3755,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3770,7 +3775,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3790,7 +3795,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3810,7 +3815,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3830,7 +3835,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3850,7 +3855,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3870,7 +3875,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3890,7 +3895,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3910,7 +3915,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3930,7 +3935,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3950,7 +3955,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3970,7 +3975,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3994,7 +3999,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4012,7 +4017,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4032,7 +4037,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4052,7 +4057,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4072,7 +4077,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4092,7 +4097,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4112,7 +4117,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4132,7 +4137,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4152,7 +4157,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4172,7 +4177,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4192,7 +4197,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4212,7 +4217,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4232,7 +4237,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4256,7 +4261,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4274,7 +4279,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4294,7 +4299,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4314,7 +4319,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4334,7 +4339,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4354,7 +4359,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4374,7 +4379,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4394,7 +4399,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4414,7 +4419,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4434,7 +4439,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4454,7 +4459,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4474,7 +4479,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4494,7 +4499,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4518,7 +4523,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4536,7 +4541,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4556,7 +4561,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4576,7 +4581,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>52</v>
@@ -4622,7 +4627,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="49"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4648,7 +4653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4668,7 +4673,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4688,7 +4693,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4708,7 +4713,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4728,7 +4733,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4754,7 +4759,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>55</v>
@@ -4776,7 +4781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>55</v>
@@ -4798,7 +4803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4818,7 +4823,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4870,7 +4875,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>49</v>
@@ -4892,7 +4897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4910,7 +4915,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44927</v>
       </c>
@@ -4930,7 +4935,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
@@ -4950,7 +4955,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -4970,7 +4975,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -4996,7 +5001,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -5022,7 +5027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>60</v>
@@ -5044,7 +5049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>51</v>
@@ -5066,7 +5071,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45078</v>
       </c>
@@ -5086,7 +5091,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45108</v>
       </c>
@@ -5112,8 +5117,10 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="40">
+        <v>45139</v>
+      </c>
       <c r="B89" s="20" t="s">
         <v>63</v>
       </c>
@@ -5132,7 +5139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>64</v>
@@ -5154,9 +5161,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -5165,12 +5174,16 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>4</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5186,7 +5199,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5202,7 +5215,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5218,7 +5231,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5234,7 +5247,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5250,7 +5263,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5266,7 +5279,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5282,7 +5295,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5298,7 +5311,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5314,7 +5327,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5330,7 +5343,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5346,7 +5359,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5362,7 +5375,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5378,7 +5391,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5394,7 +5407,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5410,7 +5423,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5426,7 +5439,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5442,7 +5455,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5458,7 +5471,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5474,7 +5487,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5490,7 +5503,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5506,7 +5519,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5522,7 +5535,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5538,7 +5551,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5554,7 +5567,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5570,7 +5583,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5586,7 +5599,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5602,7 +5615,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5618,7 +5631,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5634,7 +5647,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5650,7 +5663,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5666,7 +5679,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5682,7 +5695,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5698,7 +5711,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5714,7 +5727,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5730,7 +5743,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5746,7 +5759,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5762,7 +5775,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5778,7 +5791,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5794,7 +5807,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5810,7 +5823,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5826,7 +5839,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5842,7 +5855,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5858,7 +5871,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5874,7 +5887,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5890,7 +5903,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5906,7 +5919,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5924,23 +5937,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5963,34 +5976,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6003,16 +6016,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6024,16 +6037,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6042,19 +6055,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6062,7 +6075,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6075,24 +6088,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6127,7 +6140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6151,7 +6164,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -6171,7 +6184,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -6187,7 +6200,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -6203,7 +6216,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -6219,7 +6232,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -6235,7 +6248,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -6251,7 +6264,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6267,7 +6280,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6283,7 +6296,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6299,7 +6312,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6315,7 +6328,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6331,7 +6344,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6347,7 +6360,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6363,7 +6376,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6379,7 +6392,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6395,7 +6408,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6411,7 +6424,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6427,7 +6440,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6443,7 +6456,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6459,7 +6472,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6475,7 +6488,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6491,7 +6504,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6507,7 +6520,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6523,7 +6536,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6539,7 +6552,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6555,7 +6568,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6571,7 +6584,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6587,7 +6600,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6603,7 +6616,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6619,7 +6632,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6635,7 +6648,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6651,7 +6664,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6667,7 +6680,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6683,7 +6696,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6699,7 +6712,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6715,7 +6728,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6731,7 +6744,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6747,7 +6760,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6763,7 +6776,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6779,7 +6792,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6795,7 +6808,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6811,7 +6824,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6827,7 +6840,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6843,7 +6856,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6859,7 +6872,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6875,7 +6888,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6891,7 +6904,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6907,7 +6920,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6923,7 +6936,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6939,7 +6952,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6955,7 +6968,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6971,7 +6984,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6987,7 +7000,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7003,7 +7016,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7019,7 +7032,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7035,7 +7048,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7051,7 +7064,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7067,7 +7080,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7083,7 +7096,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7099,7 +7112,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7115,7 +7128,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7131,7 +7144,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7147,7 +7160,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7163,7 +7176,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7179,7 +7192,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7195,7 +7208,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7211,7 +7224,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7227,7 +7240,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7243,7 +7256,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7259,7 +7272,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7275,7 +7288,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7291,7 +7304,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7307,7 +7320,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7323,7 +7336,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7339,7 +7352,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7355,7 +7368,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7371,7 +7384,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7387,7 +7400,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7403,7 +7416,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7419,7 +7432,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7435,7 +7448,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7451,7 +7464,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7467,7 +7480,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7483,7 +7496,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7499,7 +7512,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7515,7 +7528,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7531,7 +7544,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7547,7 +7560,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7563,7 +7576,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7579,7 +7592,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7595,7 +7608,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7611,7 +7624,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7627,7 +7640,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7643,7 +7656,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7659,7 +7672,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7675,7 +7688,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7691,7 +7704,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7707,7 +7720,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7723,7 +7736,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7739,7 +7752,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7755,7 +7768,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7771,7 +7784,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7787,7 +7800,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7803,7 +7816,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7819,7 +7832,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7835,7 +7848,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7851,7 +7864,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7867,7 +7880,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7883,7 +7896,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7899,7 +7912,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7915,7 +7928,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7931,7 +7944,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7947,7 +7960,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7963,7 +7976,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7979,7 +7992,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7995,7 +8008,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8011,7 +8024,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8027,7 +8040,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8043,7 +8056,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8059,7 +8072,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8075,7 +8088,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8106,10 +8119,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8132,7 +8145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8140,21 +8153,21 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8167,7 +8180,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8196,7 +8209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -8216,17 +8229,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8247,7 +8260,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8274,7 +8287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8300,7 +8313,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8326,7 +8339,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8352,7 +8365,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8378,7 +8391,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8404,7 +8417,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8430,7 +8443,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8456,7 +8469,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8476,7 +8489,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8496,7 +8509,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8516,7 +8529,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8537,7 +8550,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8558,7 +8571,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8579,7 +8592,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8600,7 +8613,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8621,7 +8634,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8642,7 +8655,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8663,7 +8676,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8684,7 +8697,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8705,7 +8718,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8726,7 +8739,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8747,7 +8760,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8768,7 +8781,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8789,7 +8802,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8810,7 +8823,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8831,7 +8844,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8852,7 +8865,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8873,7 +8886,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8894,7 +8907,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8915,7 +8928,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8936,7 +8949,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8945,7 +8958,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8954,7 +8967,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8963,7 +8976,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8972,7 +8985,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8981,7 +8994,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8990,7 +9003,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8999,7 +9012,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9008,7 +9021,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9017,7 +9030,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9026,7 +9039,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9035,7 +9048,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9044,7 +9057,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9053,7 +9066,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9062,7 +9075,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9071,7 +9084,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9080,7 +9093,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9089,7 +9102,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9098,7 +9111,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9107,7 +9120,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9116,7 +9129,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9125,7 +9138,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9134,7 +9147,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9143,7 +9156,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9152,7 +9165,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9161,7 +9174,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9170,7 +9183,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9179,7 +9192,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9188,7 +9201,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9197,7 +9210,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
